--- a/pre-processing/data_cleaned/phone.xlsx
+++ b/pre-processing/data_cleaned/phone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi 14c - hang chinh hang</t>
+          <t>xiaomi redmi 14c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>đien thoai poco c75 (8gb/256gb) - hang chinh hang</t>
+          <t>poco c75 (8gb/256gb)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>đien thoai honor x5b plus 4gb/128gb - hang chinh hang</t>
+          <t>honor x5b plus (4gb/128gb)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>đien thoai tecno spark go 1 (3gb/64gb) - hang chinh hang</t>
+          <t>tecno spark go 1 (3gb/64gb)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a26 5g (8/128gb), mat lung kinh, ai-circle to search, camera hdr chup đem sang ro - hang chinh hang</t>
+          <t>samsung galaxy a26 5g (8/128gb)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>may tinh bang ipad gen 11 (a16) wifi</t>
+          <t>ipad a16 (gen 11)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>apple ipad air m3 11-inch wi-fi</t>
+          <t>ipad air m3 11-inch</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cu sac samsung khong kem cap 25w - hang chinh hang</t>
+          <t>cu sac samsung 25w</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a56 5g - hang chinh hang</t>
+          <t>samsung galaxy a56 5g</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi 13 8gb/128gb - hang chinh hang</t>
+          <t>xiaomi redmi 13 (8gb/128gb)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 14 6gb/128gb - hang chinh hang</t>
+          <t>xiaomi redmi note 14 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>op lung samsung galaxy s25 trong suot - hang chinh hang</t>
+          <t>op lung samsung galaxy s25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy s25, đien thoai ai, tim kiem thong minh, video camera đem nightography, chip snapdragon - hang chinh hang</t>
+          <t>samsung galaxy s25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 14 6gb/128gb - hang chinh hang</t>
+          <t>xiaomi redmi note 14 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 4gb/64gb - hang chinh hang</t>
+          <t>samsung galaxy a06 (4gb/64gb)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a16 lte (4gb/128gb) - đa kich hoat bao hanh đien tu - hang chinh hang</t>
+          <t>samsung galaxy a16 lte (4gb/128gb)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>may đoc sach new kindle 2024, 16gb moi nguyen seal - hang chinh hang</t>
+          <t>may đoc sach new kindle 2024 (16gb)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>đien thoai poco c75 (6gb/128gb) - hang chinh hang</t>
+          <t>poco c75 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 4gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy a06 (4gb/128gb)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1247,131 +1247,131 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>276110349</v>
+        <v>276046675</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>apple iphone 16</t>
+          <t>oppo a3 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>images/phone/product_276110349.jpg</t>
+          <t>images/phone/product_276046675.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b2/03/08/b2d825989b029533bd116447827bdd5e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3d/1e/e1/d25d2401827612ce66f96d1805a7c146.jpg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18990000</v>
+        <v>4089000</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>276110351</v>
+        <v>276046677</v>
       </c>
       <c r="J21" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>276110023</v>
+        <v>275913708</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>apple iphone 16 pro</t>
+          <t>itel it 8010 4g</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>itel</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>images/phone/product_276110023.jpg</t>
+          <t>images/phone/product_275913708.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/f1/ec/bbde43f59e7724c4c474bb81f388f98e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/99/d0/250424d5163b9796b920c66191ac001b.jpg</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>24650000</v>
+        <v>299000</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>276110025</v>
+        <v>276275006</v>
       </c>
       <c r="J22" t="n">
-        <v>230</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>276109904</v>
+        <v>275716541</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>apple iphone 16 pro max</t>
+          <t>realme c61 (4gb/128gb)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>images/phone/product_276109904.jpg</t>
+          <t>images/phone/product_275716541.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5b/b5/d0/3b6f81dedb9cae1b9b040fff9943fa26.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>30250000</v>
+        <v>2490000</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>276109953</v>
+        <v>275717178</v>
       </c>
       <c r="J23" t="n">
-        <v>1107</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>276046675</v>
+        <v>275510578</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>đien thoai oppo a3 6gb/128gb - hang chinh hang</t>
+          <t>oppo a79 5g (8gb/256gb)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1381,65 +1381,65 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>images/phone/product_276046675.jpg</t>
+          <t>images/phone/product_275510578.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3d/1e/e1/d25d2401827612ce66f96d1805a7c146.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7d/31/b4/78b2a94b4eb466c0079d9061b5273b2c.jpg</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4089000</v>
+        <v>5690000</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>276046677</v>
+        <v>275511974</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>275913708</v>
+        <v>274191773</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>đien thoai itel it8010 4g - hang chinh hang</t>
+          <t>zte libero 5g iv (4gb/128gb)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>itel</t>
+          <t>tecno</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>images/phone/product_275913708.jpg</t>
+          <t>images/phone/product_274191773.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/99/d0/250424d5163b9796b920c66191ac001b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/00/e6/90ead980cb6221148ca246fc9c14e623.jpg</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>299000</v>
+        <v>2269000</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>276275006</v>
+        <v>274191775</v>
       </c>
       <c r="J25" t="n">
         <v>13</v>
@@ -1447,550 +1447,550 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>275716541</v>
+        <v>270975124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>đien thoai realme c61 (4gb/128gb) - hang chinh hang</t>
+          <t>oppo a58 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>images/phone/product_275716541.jpg</t>
+          <t>images/phone/product_270975124.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2490000</v>
+        <v>3890000</v>
       </c>
       <c r="G26" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>275717178</v>
+        <v>270975155</v>
       </c>
       <c r="J26" t="n">
-        <v>337</v>
+        <v>25120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>275510578</v>
+        <v>252586291</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>đien thoai oppo a79 5g (8gb/256gb) - hang chinh hang</t>
+          <t>may đoc sach all new kindle paperwhite 5 (11th gen)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>images/phone/product_275510578.jpg</t>
+          <t>images/phone/product_252586291.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7d/31/b4/78b2a94b4eb466c0079d9061b5273b2c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/b3/36/e47b71970a5309bbd5b230257a64aacd.jpg</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5690000</v>
+        <v>3590000</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>275511974</v>
+        <v>262699580</v>
       </c>
       <c r="J27" t="n">
-        <v>5453</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>274191773</v>
+        <v>203661802</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>đien thoai zte libero 5g iv - 4gb/128gb dimensity 700 , khang nuoc ip67 , sac nhanh 22,5w - moi nguyen seal - hang nhap khau</t>
+          <t>adapter sac anker 313 / 311 charger gen 2 30w</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>tecno</t>
+          <t>anker</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>images/phone/product_274191773.jpg</t>
+          <t>images/phone/product_203661802.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/00/e6/90ead980cb6221148ca246fc9c14e623.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2269000</v>
+        <v>150000</v>
       </c>
       <c r="G28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>274191775</v>
+        <v>203661892</v>
       </c>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>271967379</v>
+        <v>181927774</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>iphone 15 plus</t>
+          <t>đien thoai ban panasonic kx-tgd310</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>images/phone/product_271967379.jpg</t>
+          <t>images/phone/product_181927774.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/6c/9e/a45bc5d76cec3c11c5f8cbcdf9e27929.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/98/d1/15/b90f8523563a566d553a97d5474dee78.jpg</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>18810000</v>
+        <v>1190000</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>271967576</v>
+        <v>181927775</v>
       </c>
       <c r="J29" t="n">
-        <v>306</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>271966786</v>
+        <v>181452535</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>iphone 15</t>
+          <t>itel magic x pro 4g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>itel</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>images/phone/product_271966786.jpg</t>
+          <t>images/phone/product_181452535.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/49/51/51c9ad1675f2b88999ca0689cdf207d7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/4c/bf/255a33910828eebe5ddbb8cd86898409.jpg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15350000</v>
+        <v>619000</v>
       </c>
       <c r="G30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>271966796</v>
+        <v>181452539</v>
       </c>
       <c r="J30" t="n">
-        <v>617</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>270975124</v>
+        <v>170165701</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>đien thoai oppo a58 6gb/128gb - hang chinh hang</t>
+          <t>đien thoai ban ktel 645</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>ktel</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>images/phone/product_270975124.jpg</t>
+          <t>images/phone/product_170165701.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/92/92/def752a331e3d6c937308018f66aef33.jpg</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3890000</v>
+        <v>450000</v>
       </c>
       <c r="G31" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>270975155</v>
+        <v>170165703</v>
       </c>
       <c r="J31" t="n">
-        <v>25120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252586291</v>
+        <v>164318603</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>may đoc sach all new kindle paperwhite 5 (11th gen) - hang chinh hang</t>
+          <t>đien thoai ban panasonic kx-tgf310</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>images/phone/product_252586291.jpg</t>
+          <t>images/phone/product_164318603.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/b3/36/e47b71970a5309bbd5b230257a64aacd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dc/72/f9/bbe51405ebc1681123970efd01f32163.jpg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3590000</v>
+        <v>2350000</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>262699580</v>
+        <v>164318604</v>
       </c>
       <c r="J32" t="n">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>203661802</v>
+        <v>163914808</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adapter sac anker 313 / 311 charger gen 2 30w 1 cong type-c a2639  - hang chinh hang</t>
+          <t>đien thoai ban panasonic kx-ts500mx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>anker</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>images/phone/product_203661802.jpg</t>
+          <t>images/phone/product_163914808.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/09/b7/55917b01ae380cdb1e6acce0ae683370.jpg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>150000</v>
+        <v>320000</v>
       </c>
       <c r="G33" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>203661892</v>
+        <v>163914810</v>
       </c>
       <c r="J33" t="n">
-        <v>653</v>
+        <v>979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>197214029</v>
+        <v>125182567</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>apple iphone 14</t>
+          <t>may đoc sach all new kindle paperwhite 5 (11th gen)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>images/phone/product_197214029.jpg</t>
+          <t>images/phone/product_125182567.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/95/ec/5b2c7ec0e09565f399a0a184bd71696b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/2f/c6/a161edd03cf817a13d4c3255d1467f0a.jpg</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12650000</v>
+        <v>3990000</v>
       </c>
       <c r="G34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>197214033</v>
+        <v>125182569</v>
       </c>
       <c r="J34" t="n">
-        <v>690</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>184059211</v>
+        <v>278219968</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>apple iphone 13</t>
+          <t>oppo a3 (8gb/128gb)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>images/phone/product_184059211.jpg</t>
+          <t>images/phone/product_278219968.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ba/88/66059a54a3a139d45841d412379b1fe4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/50/02/5fb991d06aa5c4ec4dbb735e224a868f.png</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11350000</v>
+        <v>4490000</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>123547399</v>
+        <v>278240505</v>
       </c>
       <c r="J35" t="n">
-        <v>6815</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>181927774</v>
+        <v>278219887</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>đien thoai ban panasonic kx-tgd310 hang chinh hang</t>
+          <t>oppo reno13 f 5g (12gb/512gb)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>images/phone/product_181927774.jpg</t>
+          <t>images/phone/product_278219887.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/98/d1/15/b90f8523563a566d553a97d5474dee78.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1190000</v>
+        <v>9490000</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>181927775</v>
+        <v>278219891</v>
       </c>
       <c r="J36" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>181452535</v>
+        <v>277812880</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>đien thoai itel magic x pro 4g ,ket noi wifi,chia se wifi cho may khac - hang chinh hang</t>
+          <t>galaxy tab s10 fe (8gb/128gb)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>itel</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>images/phone/product_181452535.jpg</t>
+          <t>images/phone/product_277812880.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/4c/bf/255a33910828eebe5ddbb8cd86898409.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4d/0f/9c/f699564af6cf0e909e900e1af6a91396.jpg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>619000</v>
+        <v>9290000</v>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>181452539</v>
+        <v>277812882</v>
       </c>
       <c r="J37" t="n">
-        <v>153</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>170165701</v>
+        <v>277811118</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>đien thoai ban ktel 645 hang chinh hang</t>
+          <t>xiaomi redmi note 14 5g (8gb/256gb)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ktel</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>images/phone/product_170165701.jpg</t>
+          <t>images/phone/product_277811118.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/92/92/def752a331e3d6c937308018f66aef33.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>450000</v>
+        <v>6239000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>170165703</v>
+        <v>277811124</v>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>164318603</v>
+        <v>277737629</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>đien thoai ban panasonic kx-tgf310 hang chinh hang</t>
+          <t>xiaomi redmi 13 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>images/phone/product_164318603.jpg</t>
+          <t>images/phone/product_277737629.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dc/72/f9/bbe51405ebc1681123970efd01f32163.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2350000</v>
+        <v>2919000</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1999,219 +1999,219 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>164318604</v>
+        <v>277737631</v>
       </c>
       <c r="J39" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>163914808</v>
+        <v>277737595</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>đien thoai ban panasonic  kx-ts500mx-hang chinh hang</t>
+          <t>samsung galaxy a06 5g (4gb/128gb)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>images/phone/product_163914808.jpg</t>
+          <t>images/phone/product_277737595.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/09/b7/55917b01ae380cdb1e6acce0ae683370.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>320000</v>
+        <v>2639000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>163914810</v>
+        <v>277737597</v>
       </c>
       <c r="J40" t="n">
-        <v>979</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>125182567</v>
+        <v>277646748</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>may đoc sach all new kindle paperwhite 5 (11th gen) - hang nhap khau</t>
+          <t>samsung galaxy a06 5g (4gb/64gb)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>images/phone/product_125182567.jpg</t>
+          <t>images/phone/product_277646748.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/2f/c6/a161edd03cf817a13d4c3255d1467f0a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3990000</v>
+        <v>2589000</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>125182569</v>
+        <v>277646755</v>
       </c>
       <c r="J41" t="n">
-        <v>1582</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>278219968</v>
+        <v>277512620</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>đien thoai oppo a3 8gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy a36 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>images/phone/product_278219968.jpg</t>
+          <t>images/phone/product_277512620.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/50/02/5fb991d06aa5c4ec4dbb735e224a868f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4490000</v>
+        <v>6769000</v>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>278240505</v>
+        <v>277512626</v>
       </c>
       <c r="J42" t="n">
-        <v>347</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>278219887</v>
+        <v>277512611</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>đien thoai oppo reno13 f 5g 12gb/512gb - hang chinh hang</t>
+          <t>samsung galaxy a56 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>images/phone/product_278219887.jpg</t>
+          <t>images/phone/product_277512611.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9490000</v>
+        <v>8189000</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>278219891</v>
+        <v>277512619</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>277812880</v>
+        <v>277311651</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>may tinh bang galaxy tab s10 fe wifi (8gb/128gb) - hang chinh hang</t>
+          <t>realme c65 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>images/phone/product_277812880.jpg</t>
+          <t>images/phone/product_277311651.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4d/0f/9c/f699564af6cf0e909e900e1af6a91396.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/5f/bc/06e41b9dcc401fb97e5a66994e6d8aa9.jpg</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9290000</v>
+        <v>3599000</v>
       </c>
       <c r="G44" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>277812882</v>
+        <v>277311653</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>277811118</v>
+        <v>277311630</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 14 5g 8gb/256gb - hang chinh hang</t>
+          <t>xiaomi redmi 14c (6gb/128gb)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2221,77 +2221,77 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>images/phone/product_277811118.jpg</t>
+          <t>images/phone/product_277311630.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/97/48/bf0115c0c1322c9ee0208930703db4da.jpg</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6239000</v>
+        <v>2709000</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>277311632</v>
+      </c>
+      <c r="J45" t="n">
         <v>14</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>277811124</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>277737629</v>
+        <v>277164948</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi 13 6gb/128gb - hang chinh hang</t>
+          <t>op lung samsung galaxy s25 ultra</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>images/phone/product_277737629.jpg</t>
+          <t>images/phone/product_277164948.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2919000</v>
+        <v>590000</v>
       </c>
       <c r="G46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>277737631</v>
+        <v>277164949</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>277737595</v>
+        <v>277068413</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 5g 4gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy s25 ultra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2301,37 +2301,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>images/phone/product_277737595.jpg</t>
+          <t>images/phone/product_277068413.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/ec/b9/18e68183cc93623f22250f21b76a2d61.jpg</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2639000</v>
+        <v>28990000</v>
       </c>
       <c r="G47" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>277737597</v>
+        <v>277068431</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>277646748</v>
+        <v>277065642</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 5g (4gb/64gb) - hang chinh hang</t>
+          <t>samsung galaxy s25+</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2341,77 +2341,77 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>images/phone/product_277646748.jpg</t>
+          <t>images/phone/product_277065642.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f9/e3/62/2f6952957b4b9f408cca4ea19ac429bf.jpg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2589000</v>
+        <v>21490000</v>
       </c>
       <c r="G48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>277646755</v>
+        <v>277165202</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>277512620</v>
+        <v>277041250</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a36 5g 8gb/128gb - hang chinh hang</t>
+          <t>xiaomi 14t pro 5g (12gb/512gb)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>images/phone/product_277512620.jpg</t>
+          <t>images/phone/product_277041250.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6769000</v>
+        <v>14369000</v>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>277512626</v>
+        <v>277041252</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>277512611</v>
+        <v>277039291</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a56 5g 8gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy a55 5g</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2421,265 +2421,265 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>images/phone/product_277512611.jpg</t>
+          <t>images/phone/product_277039291.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8189000</v>
+        <v>8790000</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>277512619</v>
+        <v>277039343</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>277409699</v>
+        <v>277014407</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>apple iphone 16e</t>
+          <t>zte blade a34 (4gb/64gb)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>tecno</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>images/phone/product_277409699.jpg</t>
+          <t>images/phone/product_277014407.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/7b/e4/a1b03a24fdf349a63fb539dd8953db20.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>16490000</v>
+        <v>1699000</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>277409703</v>
+        <v>277026884</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>277311651</v>
+        <v>276639232</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>đien thoai realme c65 6gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy a16 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>images/phone/product_277311651.jpg</t>
+          <t>images/phone/product_276639232.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/5f/bc/06e41b9dcc401fb97e5a66994e6d8aa9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3599000</v>
+        <v>4889000</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>277311653</v>
+        <v>276639234</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>277311630</v>
+        <v>276448920</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi 14c 6gb/128gb - hang chinh hang</t>
+          <t>may đoc sach amazon kindle paperwhite 6 (gen 12th)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>images/phone/product_277311630.jpg</t>
+          <t>images/phone/product_276448920.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/97/48/bf0115c0c1322c9ee0208930703db4da.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/e7/74/68080c04130bb376a971ea54196b6f60.jpg</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2709000</v>
+        <v>4890000</v>
       </c>
       <c r="G53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H53" t="n">
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>277311632</v>
+        <v>276448922</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>277164948</v>
+        <v>276410628</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>op lung samsung galaxy s25 ultra trong suot - hang chinh hang</t>
+          <t>realme v60 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>images/phone/product_277164948.jpg</t>
+          <t>images/phone/product_276410628.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>590000</v>
+        <v>2799000</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>277164949</v>
+        <v>276410632</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>277068413</v>
+        <v>276314708</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy s25 ultra, đien thoai ai, tim kiem thong minh, video camera đem nightography, s pen đa nhiem - hang chinh hang</t>
+          <t>masstel izi 16 4g</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>masstel</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>images/phone/product_277068413.jpg</t>
+          <t>images/phone/product_276314708.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/ec/b9/18e68183cc93623f22250f21b76a2d61.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/20/10/20/0590c71068184207b66d1a0e6cd6e0af.jpg</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>28990000</v>
+        <v>619000</v>
       </c>
       <c r="G55" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>277068431</v>
+        <v>276314710</v>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>277065642</v>
+        <v>276305472</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy s25+, đien thoai ai, tim kiem thong minh, video camera đem nightography, chip snapdragon - hang chinh hang</t>
+          <t>vivo y100 (8gb/256gb)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>images/phone/product_277065642.jpg</t>
+          <t>images/phone/product_276305472.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f9/e3/62/2f6952957b4b9f408cca4ea19ac429bf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/b6/d3/0ca66b5a987df2f056000054457bf3c2.png</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>21490000</v>
+        <v>7690000</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>277165202</v>
+        <v>276492916</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2687,51 +2687,51 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>277041250</v>
+        <v>276281988</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi 14t pro 5g 12gb/512gb - hang chinh hang</t>
+          <t>samsung galaxy a06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>images/phone/product_277041250.jpg</t>
+          <t>images/phone/product_276281988.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/6c/56/782eb3f6491384553aaf71d0ac4f7661.jpg</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>14369000</v>
+        <v>2359000</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>277041252</v>
+        <v>276281992</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>277039291</v>
+        <v>275338696</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a55 5g - hang chinh hang</t>
+          <t>samsung galaxy tab a9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2741,25 +2741,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>images/phone/product_277039291.jpg</t>
+          <t>images/phone/product_275338696.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/14/47/cc020b37a155e60301076ca55fc23c57.jpg</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8790000</v>
+        <v>7440000</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>277039343</v>
+        <v>275338698</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2767,611 +2767,611 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>277014407</v>
+        <v>274544634</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>đien thoai zte blade a34 (4gb/64gb) man hinh 6.6", pin 5000mah - hang chinh hang</t>
+          <t>redmi note 12r 5g (6gb/128gb)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tecno</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>images/phone/product_277014407.jpg</t>
+          <t>images/phone/product_274544634.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1699000</v>
+        <v>3099000</v>
       </c>
       <c r="G59" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>277026884</v>
+        <v>274544644</v>
       </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>276639232</v>
+        <v>274516951</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a16 5g 8gb/128gb - hang chinh hang</t>
+          <t>masstel izi 16 4g</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>masstel</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>images/phone/product_276639232.jpg</t>
+          <t>images/phone/product_274516951.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/be/c1/1856d5ff1185a7c14d038704c01a4269.jpg</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4889000</v>
+        <v>469000</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>276639234</v>
+        <v>274516955</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>276448920</v>
+        <v>274405521</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>may đoc sach amazon kindle paperwhite 6 (gen 12th), moi nguyen seal - hang chinh hang</t>
+          <t>samsung galaxy a05 (4gb/64gb)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>images/phone/product_276448920.jpg</t>
+          <t>images/phone/product_274405521.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/59/e7/74/68080c04130bb376a971ea54196b6f60.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/ce/b9/421962b198f5250c9a87f5ff4d6b3bb0.jpg</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4890000</v>
+        <v>2139000</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I61" t="n">
-        <v>276448922</v>
+        <v>274405525</v>
       </c>
       <c r="J61" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>276410628</v>
+        <v>273990229</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>đien thoai realme v60 (6gb/128gb) 5g , chip dimensity 6300, rom tieng viet - hang nhap khau</t>
+          <t>xiaomi redmi note 13 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>images/phone/product_276410628.jpg</t>
+          <t>images/phone/product_273990229.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ea/6d/92/5917ee4c9a1124d82298b4695cd742b1.jpg</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2799000</v>
+        <v>3589000</v>
       </c>
       <c r="G62" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I62" t="n">
-        <v>276410632</v>
+        <v>273990231</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>276314708</v>
+        <v>272222033</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>đien thoai masstel izi 16 4g - hang chinh hang</t>
+          <t>may đoc sach boox palma</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>masstel</t>
+          <t>onyx boox</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>images/phone/product_276314708.jpg</t>
+          <t>images/phone/product_272222033.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/20/10/20/0590c71068184207b66d1a0e6cd6e0af.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/39/8f/47a8209e6f2ec87da7a9d074610c834d.png</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>619000</v>
+        <v>6990000</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I63" t="n">
-        <v>276314710</v>
+        <v>272222401</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>276305472</v>
+        <v>271954384</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[moi] đien thoai vivo y100 (8gb+256gb) - hang chinh hang - 1 đoi 1 trong thang đau tien - bao hanh 12 thang</t>
+          <t>oppo a58 (6gb/128gb) sach nhanh 33w</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>images/phone/product_276305472.jpg</t>
+          <t>images/phone/product_271954384.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/b6/d3/0ca66b5a987df2f056000054457bf3c2.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7690000</v>
+        <v>4990000</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H64" t="n">
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>276492916</v>
+        <v>271954388</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>276281988</v>
+        <v>271128271</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 - hang chinh hang</t>
+          <t>oppo a58 (6gb/128gb)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>oppo</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>images/phone/product_276281988.jpg</t>
+          <t>images/phone/product_271128271.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/6c/56/782eb3f6491384553aaf71d0ac4f7661.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2359000</v>
+        <v>3659000</v>
       </c>
       <c r="G65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>276281992</v>
+        <v>271128275</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>276110276</v>
+        <v>230155305</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>apple iphone 16 plus</t>
+          <t>xiaomi redmi note 10 je 5g (4gb/64gb)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>images/phone/product_276110276.jpg</t>
+          <t>images/phone/product_230155305.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b4/2c/b9/59569bb010e754e338314671c16c84a8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>21990000</v>
+        <v>2429000</v>
       </c>
       <c r="G66" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I66" t="n">
-        <v>276110282</v>
+        <v>230155311</v>
       </c>
       <c r="J66" t="n">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>275338696</v>
+        <v>217706932</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>may tinh bang samsung galaxy tab a9+ 5g - hang chinh hang</t>
+          <t>combo may đoc sach all new kindle paperwhite 5 (11th gen) va bao da</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>images/phone/product_275338696.jpg</t>
+          <t>images/phone/product_217706932.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/14/47/cc020b37a155e60301076ca55fc23c57.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/30/c9/e1b87f07a82762db5c122516dc5dd51c.jpg</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>7440000</v>
+        <v>3990000</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>275338698</v>
+        <v>161964625</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>274544634</v>
+        <v>204237269</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>đien thoai redmi note 12r 5g 6/128gb snapdragon 4 gen 2, rom quoc te co san tieng viet - hang nhap khau</t>
+          <t>đien thoai ban panasonic kx-tsc11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>images/phone/product_274544634.jpg</t>
+          <t>images/phone/product_204237269.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/dd/92/991b033392f01d334d1ce248d69e1daa.jpg</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3099000</v>
+        <v>600000</v>
       </c>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H68" t="n">
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>274544644</v>
+        <v>204267315</v>
       </c>
       <c r="J68" t="n">
-        <v>28</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>274516951</v>
+        <v>201067649</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>đien thoai masstel izi 16 4g(lte) , ban phim noi, fm khong day - hang chinh hang</t>
+          <t>combo may đoc sach kindle paperwhite 5 (11th gen) tang kem bao da</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>masstel</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>images/phone/product_274516951.jpg</t>
+          <t>images/phone/product_201067649.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/be/c1/1856d5ff1185a7c14d038704c01a4269.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/49/8f/e093321a9f3ed55fe77e8c83bfca8c55.jpg</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>469000</v>
+        <v>3590000</v>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>274516955</v>
+        <v>184640915</v>
       </c>
       <c r="J69" t="n">
-        <v>11</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>274405521</v>
+        <v>164213695</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a05 4gb/64gb - hang chinh hang</t>
+          <t>đien thoai ban panasonic kx-tgb110</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>images/phone/product_274405521.jpg</t>
+          <t>images/phone/product_164213695.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/ce/b9/421962b198f5250c9a87f5ff4d6b3bb0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/b0/69/63bbae55fe5a5a096392c6d325e8fc95.jpg</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2139000</v>
+        <v>850000</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H70" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>274405525</v>
+        <v>164213696</v>
       </c>
       <c r="J70" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>273990229</v>
+        <v>23142193</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 13 6gb/128gb - hang chinh hang</t>
+          <t>đien thoai ban panasonic kx-tgc313</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>images/phone/product_273990229.jpg</t>
+          <t>images/phone/product_23142193.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ea/6d/92/5917ee4c9a1124d82298b4695cd742b1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d4/7e/c9/72e19580d556fa02d030cc6e77d1c6fd.jpg</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3589000</v>
+        <v>2350000</v>
       </c>
       <c r="G71" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I71" t="n">
-        <v>273990231</v>
+        <v>49185625</v>
       </c>
       <c r="J71" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>272222033</v>
+        <v>11251770</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>may đoc sach boox palma - hang chinh hang</t>
+          <t>đien thoai ban panasonic kx-tgd310</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>onyx boox</t>
+          <t>panasonic</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>images/phone/product_272222033.jpg</t>
+          <t>images/phone/product_11251770.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/39/8f/47a8209e6f2ec87da7a9d074610c834d.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/a1/73/79e54ec11e29656703784d7ad6eeae22.jpg</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6990000</v>
+        <v>1430000</v>
       </c>
       <c r="G72" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>272222401</v>
+        <v>49095332</v>
       </c>
       <c r="J72" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>271954384</v>
+        <v>277944334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>đien thoai oppo a58 6gb/128gb , sac nhanh 33w - hang chinh hang</t>
+          <t>samsung galaxy a06 5g (4gb/64gb)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>images/phone/product_271954384.jpg</t>
+          <t>images/phone/product_277944334.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4990000</v>
+        <v>2469000</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>271954388</v>
+        <v>277944336</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>271128271</v>
+        <v>277738691</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>đien thoai oppo a58 6gb/128gb - hang chinh hang</t>
+          <t>oppo a58 (8gb/128gb)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3381,437 +3381,437 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>images/phone/product_271128271.jpg</t>
+          <t>images/phone/product_277738691.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/c4/04/18c6cf90e258545542577f9a2a9185c3.jpg</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3659000</v>
+        <v>3979000</v>
       </c>
       <c r="G74" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H74" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>271128275</v>
+        <v>277738693</v>
       </c>
       <c r="J74" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>230155305</v>
+        <v>277707642</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 10 je 5g 4gb/64gb - man 90hz - chong nuoc ip68 - hang nhap khau - ban quoc te</t>
+          <t>samsung galaxy a26 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>images/phone/product_230155305.jpg</t>
+          <t>images/phone/product_277707642.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2429000</v>
+        <v>6940000</v>
       </c>
       <c r="G75" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H75" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>230155311</v>
+        <v>277707647</v>
       </c>
       <c r="J75" t="n">
-        <v>166</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>217706932</v>
+        <v>277704510</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>combo may đoc sach all new kindle paperwhite 5 (11th gen) va bao da - hang nhap khau</t>
+          <t>samsung galaxy a26 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>images/phone/product_217706932.jpg</t>
+          <t>images/phone/product_277704510.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/30/c9/e1b87f07a82762db5c122516dc5dd51c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3990000</v>
+        <v>5579000</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>161964625</v>
+        <v>277704512</v>
       </c>
       <c r="J76" t="n">
-        <v>511</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>204237269</v>
+        <v>277651890</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>đien thoai ban panasonic kx-tsc11 - hang chinh hang - trang</t>
+          <t>samsung galaxy a06 5g (4gb/128gb)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>images/phone/product_204237269.jpg</t>
+          <t>images/phone/product_277651890.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/84/dd/92/991b033392f01d334d1ce248d69e1daa.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2c/63/b3/c84e4dd1cb2a41394e8086f52a26bd15.jpg</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>600000</v>
+        <v>2889000</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>204267315</v>
+        <v>277652003</v>
       </c>
       <c r="J77" t="n">
-        <v>292</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>201067649</v>
+        <v>277607297</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>combo may đoc sach kindle paperwhite 5 (11th gen) tang kem bao da ( cover ) - hang nhap khau</t>
+          <t>vivo y19s (4gb/128gb)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>kindle</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>images/phone/product_201067649.jpg</t>
+          <t>images/phone/product_277607297.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/49/8f/e093321a9f3ed55fe77e8c83bfca8c55.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3590000</v>
+        <v>3050000</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>184640915</v>
+        <v>277608199</v>
       </c>
       <c r="J78" t="n">
-        <v>576</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>164213695</v>
+        <v>277490201</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>đien thoai ban panasonic kx-tgb110 hang chinh hang</t>
+          <t>samsung galaxy a36 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>images/phone/product_164213695.jpg</t>
+          <t>images/phone/product_277490201.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/b0/69/63bbae55fe5a5a096392c6d325e8fc95.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>850000</v>
+        <v>6940000</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>164213696</v>
+        <v>277490203</v>
       </c>
       <c r="J79" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>23142193</v>
+        <v>277437876</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>đien thoai ban khong day panasonic kx-tgc313 - hang chinh hang</t>
+          <t>samsung galaxy m15 5g (4gb/128gb)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>images/phone/product_23142193.jpg</t>
+          <t>images/phone/product_277437876.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d4/7e/c9/72e19580d556fa02d030cc6e77d1c6fd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/82/57/da1f2bb909396656918a1ebcef4891b9.jpg</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2350000</v>
+        <v>3509000</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>49185625</v>
+        <v>277437878</v>
       </c>
       <c r="J80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>11251770</v>
+        <v>277356193</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>đien thoai ban khong day panasonic kx-tgd310 - hang chinh hang</t>
+          <t>xiaomi redmi note 14 pro+ 5g (8gb/256gb)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>images/phone/product_11251770.jpg</t>
+          <t>images/phone/product_277356193.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/a1/73/79e54ec11e29656703784d7ad6eeae22.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1430000</v>
+        <v>10890000</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>49095332</v>
+        <v>277356199</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>277944334</v>
+        <v>277356031</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 5g 4gb/64gb - hang chinh hang</t>
+          <t>xiaomi redmi a3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>images/phone/product_277944334.jpg</t>
+          <t>images/phone/product_277356031.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/90/1e/d6/483ad20a073f3e2165c8b95b9b00bbd0.jpg</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2469000</v>
+        <v>2689000</v>
       </c>
       <c r="G82" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>277944336</v>
+        <v>277356041</v>
       </c>
       <c r="J82" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>277738691</v>
+        <v>277175955</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>đien thoai oppo a58 8gb/128gb - hang chinh hang</t>
+          <t>xiaomi redmi a3 (3gb/64gb)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>oppo</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>images/phone/product_277738691.jpg</t>
+          <t>images/phone/product_277175955.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/c4/04/18c6cf90e258545542577f9a2a9185c3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3979000</v>
+        <v>1869000</v>
       </c>
       <c r="G83" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>277738693</v>
+        <v>277175959</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>277707642</v>
+        <v>277030799</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a26 5g (8gb/128gb) - hang chinh hang</t>
+          <t>realme note 50 (3gb/64gb)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>images/phone/product_277707642.jpg</t>
+          <t>images/phone/product_277030799.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6940000</v>
+        <v>1999000</v>
       </c>
       <c r="G84" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>277707647</v>
+        <v>277030804</v>
       </c>
       <c r="J84" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>277704510</v>
+        <v>276944868</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a26 5g 8gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy a16 (4gb/128gb)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3821,16 +3821,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>images/phone/product_277704510.jpg</t>
+          <t>images/phone/product_276944868.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/a4/72/0633636849394853127a13f43764c7b2.jpg</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5579000</v>
+        <v>3439000</v>
       </c>
       <c r="G85" t="n">
         <v>20</v>
@@ -3839,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>277704512</v>
+        <v>276944870</v>
       </c>
       <c r="J85" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>277651890</v>
+        <v>276925932</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a06 5g (4gb/128gb) - hang chinh hang</t>
+          <t>samsung galaxy a16 lte</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3861,117 +3861,117 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>images/phone/product_277651890.jpg</t>
+          <t>images/phone/product_276925932.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2c/63/b3/c84e4dd1cb2a41394e8086f52a26bd15.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2889000</v>
+        <v>3589000</v>
       </c>
       <c r="G86" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>277652003</v>
+        <v>276925934</v>
       </c>
       <c r="J86" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>277607297</v>
+        <v>276802409</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>đien thoai smartphone vivo y19s sieu ben - ram 4gb rom 128gb - mau đen va xanh - 5500mah - hang chinh hang</t>
+          <t>samsung galaxy a16 5g</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>images/phone/product_277607297.jpg</t>
+          <t>images/phone/product_276802409.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5b/84/32/f01e0aa28c9de9cc48e73dccc32eedc0.jpg</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3050000</v>
+        <v>5049000</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>277608199</v>
+        <v>276802411</v>
       </c>
       <c r="J87" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>277490201</v>
+        <v>276500230</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy a36 5g (8gb/128gb) - hang chinh hang</t>
+          <t>may đoc sach kindle colorsoft signature edition (32gb)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>kindle</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>images/phone/product_277490201.jpg</t>
+          <t>images/phone/product_276500230.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/1e/c1/0bee95c3d68e574a6b71979858500858.jpg</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6940000</v>
+        <v>8990000</v>
       </c>
       <c r="G88" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>277490203</v>
+        <v>276500231</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>277437876</v>
+        <v>276489194</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>đien thoai samsung galaxy m15 5g 4gb/128gb - hang chinh hang</t>
+          <t>samsung galaxy s24 fe</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3981,16 +3981,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>images/phone/product_277437876.jpg</t>
+          <t>images/phone/product_276489194.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/82/57/da1f2bb909396656918a1ebcef4891b9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3509000</v>
+        <v>16840000</v>
       </c>
       <c r="G89" t="n">
         <v>20</v>
@@ -3999,19 +3999,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>277437878</v>
+        <v>276489196</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>277356193</v>
+        <v>276099688</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi note 14 pro+ 5g (8gb/256gb) - hang chinh hang</t>
+          <t>xiaomi redmi note 12 5g (8gb/128gb)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4021,37 +4021,37 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>images/phone/product_277356193.jpg</t>
+          <t>images/phone/product_276099688.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/37/40/2153b8aad82a11b9d588de97fec3a724.jpg</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10890000</v>
+        <v>3169000</v>
       </c>
       <c r="G90" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>277356199</v>
+        <v>276099692</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>277356031</v>
+        <v>276062770</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>đien thoai xiaomi redmi a3 - hang chinh hang</t>
+          <t>xiaomi redmi 14c (4gb/128gb)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4061,427 +4061,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>images/phone/product_277356031.jpg</t>
+          <t>images/phone/product_276062770.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/90/1e/d6/483ad20a073f3e2165c8b95b9b00bbd0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2689000</v>
+        <v>2549000</v>
       </c>
       <c r="G91" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>277356041</v>
+        <v>276062772</v>
       </c>
       <c r="J91" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>277175955</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>đien thoai xiaomi redmi a3 3gb/64gb - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>xiaomi</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>images/phone/product_277175955.jpg</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1869000</v>
-      </c>
-      <c r="G92" t="n">
-        <v>25</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>277175959</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>277030799</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>đien thoai realme note 50 , man 90hz (3gb/64gb) rom quoc te - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>realme</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>images/phone/product_277030799.jpg</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>26</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>277030804</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>276944868</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>đien thoai samsung galaxy a16 4gb/128gb - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>images/phone/product_276944868.jpg</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/a4/72/0633636849394853127a13f43764c7b2.jpg</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>3439000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>32</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>276944870</v>
-      </c>
-      <c r="J94" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>276925932</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>đien thoai samsung galaxy a16 lte - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>images/phone/product_276925932.jpg</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>3589000</v>
-      </c>
-      <c r="G95" t="n">
-        <v>29</v>
-      </c>
-      <c r="H95" t="n">
-        <v>5</v>
-      </c>
-      <c r="I95" t="n">
-        <v>276925934</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>276802409</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>đien thoai samsung galaxy a16 5g - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>images/phone/product_276802409.jpg</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5b/84/32/f01e0aa28c9de9cc48e73dccc32eedc0.jpg</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>5049000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>17</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>276802411</v>
-      </c>
-      <c r="J96" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>276500230</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>may đoc sach kindle colorsoft signature edition 32gb, man hinh mau 7 inch - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>kindle</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>images/phone/product_276500230.jpg</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/1e/c1/0bee95c3d68e574a6b71979858500858.jpg</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>8990000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>276500231</v>
-      </c>
-      <c r="J97" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>276489194</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>đien thoai samsung galaxy s24 fe - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>images/phone/product_276489194.jpg</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>16840000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>100</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>276489196</v>
-      </c>
-      <c r="J98" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>276465090</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>combo may đoc sach amazon kindle paperwhite 6 (gen 12th) kem bao da, moi nguyen seal - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>kindle</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>images/phone/product_276465090.jpg</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/be/79/15314677596e5076541f60fc98999dbe.jpg</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>4890000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>276465100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>276099688</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>xiaomi redmi note 12 5g 8gb/128gb ,man amoled 120hz , snapdragon 4 gen 1 ,sac 33w ,rom tieng viet - hang nhap khau</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>xiaomi</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>images/phone/product_276099688.jpg</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/37/40/2153b8aad82a11b9d588de97fec3a724.jpg</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>3169000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>21</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I100" t="n">
-        <v>276099692</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>276062770</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>đien thoai xiaomi redmi 14c 4gb/128gb - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>xiaomi</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>images/phone/product_276062770.jpg</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>2549000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>23</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>276062772</v>
-      </c>
-      <c r="J101" t="n">
         <v>2</v>
       </c>
     </row>
